--- a/pack1.xlsx
+++ b/pack1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F324831-4819-4667-AE59-F96635BB9E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8438C369-7E0D-4EFF-9543-8CD46837D9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>not required</t>
   </si>
 </sst>
 </file>
@@ -629,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>50</v>
       </c>
@@ -1049,7 +1043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>52</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>54</v>
       </c>
@@ -1071,7 +1065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>56</v>
       </c>
@@ -1082,7 +1076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>59</v>
       </c>
@@ -1093,7 +1087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>70</v>
       </c>
@@ -1104,7 +1098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1121,13 +1115,10 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1173,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>33</v>
       </c>
@@ -1204,7 +1195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>36</v>
       </c>
@@ -1215,7 +1206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>39</v>
       </c>
